--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBBBBB"/>
+        <bgColor rgb="00BBBBBB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +51,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,446 +436,985 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Login Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MaximilianDe_Junious</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Maximilian,De_Junious-2cn^</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Maximilian</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>De_Junious</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2cn</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>de_junious</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Maximilian_De_Junious%2cn^</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RamonNunez_Gomez</t>
+          <t>Ramon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ramon=Nunez_Gomez=3bn=</t>
+          <t>Nunez_Gomez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3bn</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nunez_gomez</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ramon#Nunez_Gomez-3bn^</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Uelkue_OemerUellaegoess</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Uelkue_Oemer&amp;Uellaegoess(1an%</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Uelkue_Oemer</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Uellaegoess</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1an</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>uellaegoess</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Uelkue_Oemer&amp;Uellaegoess#1an%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IsisLanpher</t>
+          <t>Isis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isis_Lanpher-4cn!</t>
+          <t>Lanpher</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4cn</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>lanpher</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Isis^Lanpher^4cn(</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MaximilianGalvin</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Maximilian,Galvin=2an-</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Maximilian</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Galvin</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2an</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>galvin</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Maximilian^Galvin#2an_</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JannetteLaspina</t>
+          <t>Jannette</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jannette(Laspina-4cn(</t>
+          <t>Laspina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4cn</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>laspina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jannette^Laspina!4cn(</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MargDodich</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Marg%Dodich!3cn,</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Marg</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Dodich</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3cn</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>dodich</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Marg&amp;Dodich(3cn(</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CarisaBannowsky</t>
+          <t>Carisa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carisa.Bannowsky!2an-</t>
+          <t>Bannowsky</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2an</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>bannowsky</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Carisa(Bannowsky(2an=</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DavidWaisath</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>David-Waisath-4cn(</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Waisath</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4cn</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>waisath</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>David.Waisath^4cn)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paulettevon_Reddig-Piette</t>
+          <t>Paulette</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paulette^von_Reddig-Piette!2cn=</t>
+          <t>von_Reddig-Piette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2cn</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>von_reddig-piette</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Paulette^von_Reddig-Piette,2cn#</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KirbyLatona</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Kirby=Latona)2an%</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Kirby</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Latona</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2an</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>latona</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Kirby^Latona&amp;2an_</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ReedHomewood</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reed^Homewood%2bn^</t>
+          <t>Homewood</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2bn</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>homewood</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Reed)Homewood_2bn%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BlairPallafor-Zedian</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Blair^Pallafor-Zedian_5cn%</t>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Blair</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Pallafor-Zedian</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5cn</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>pallafor-zedian</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Blair.Pallafor-Zedian#5cn(</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LonSenemounnarat-Quillian</t>
+          <t>Lon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lon)Senemounnarat-Quillian(2cn,</t>
+          <t>Senemounnarat-Quillian</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2cn</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>senemounnarat-quillian</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lon,Senemounnarat-Quillian_2cn(</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>VadaIsaac</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Vada=Isaac!2bn%</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Vada</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Isaac</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2bn</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>isaac</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Vada(Isaac-2bn,</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JeanettPlancarte</t>
+          <t>Jeanett</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jeanett_Plancarte,4bn_</t>
+          <t>Plancarte</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4bn</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>plancarte</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Jeanett=Plancarte!4bn_</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AlexBerteotti-Stirn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Alex#Berteotti-Stirn#None(</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Berteotti-Stirn</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>berteotti-stirn</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Alex,Berteotti-Stirn.None%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RobynStrycker</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Robyn(Strycker)3an%</t>
+          <t>Strycker</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3an</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>strycker</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Robyn,Strycker-3an%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CamilleVon_Verrill</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Camille_Von_Verrill&amp;3bn,</t>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Von_Verrill</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3bn</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>von_verrill</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Camille-Von_Verrill%3bn#</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Franz_Michael_LeopoldDeschner</t>
+          <t>Franz_Michael_Leopold</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Franz_Michael_Leopold_Deschner_4cn-</t>
+          <t>Deschner</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4cn</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>deschner</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Franz_Michael_Leopold^Deschner_4cn.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>VeolaFranzi</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Veola.Franzi,None=</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Veola</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Franzi</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>franzi</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Veola^Franzi&amp;None)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ChantelleCringle</t>
+          <t>Chantelle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chantelle_Cringle!3cn)</t>
+          <t>Cringle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3cn</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>cringle</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chantelle=Cringle_3cn%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BritneyKosh</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Britney=Kosh#5bn)</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Britney</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Kosh</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5bn</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>kosh</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Britney.Kosh&amp;5bn,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ClaytonDerouchie</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clayton_Derouchie&amp;4bn,</t>
+          <t>Derouchie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4bn</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>derouchie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Clayton)Derouchie.4bn#</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BeverleeDoutt</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Beverlee&amp;Doutt%5bn!</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Beverlee</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Doutt</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5bn</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>doutt</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Beverlee^Doutt=5bn^</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AlmaMunley</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alma#Munley&amp;1bn&amp;</t>
+          <t>Munley</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1bn</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>munley</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Alma)Munley-1bn!</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ThadDornbos</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Thad&amp;Dornbos_5an.</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Thad</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Dornbos</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>5an</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>dornbos</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Thad&amp;Dornbos=5an)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ArvillaMahala</t>
+          <t>Arvilla</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Arvilla.Mahala-2cn!</t>
+          <t>Mahala</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2cn</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>mahala</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Arvilla_Mahala)2cn_</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MirzaEllingwood</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mirza!Ellingwood(None.</t>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Mirza</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Ellingwood</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>ellingwood</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Mirza!Ellingwood_None&amp;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Franciede_Cardinalli-Sciola</t>
+          <t>Francie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Francie^de_Cardinalli-Sciola&amp;3an=</t>
+          <t>de_Cardinalli-Sciola</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3an</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>de_cardinalli-sciola</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Francie(de_Cardinalli-Sciola-3an=</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>IRENEEGundry</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>IRENEE!Gundry#None!</t>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>IRENEE</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Gundry</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>gundry</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>IRENEE!Gundry_None-</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IRENEEPinedo</t>
+          <t>IRENEE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IRENEE#Pinedo%3cn.</t>
+          <t>Pinedo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3cn</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>pinedo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>IRENEE#Pinedo(3cn.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MirzaPinsky</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mirza(Pinsky,1bn_</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Mirza</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Pinsky</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1bn</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>pinsky</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Mirza,Pinsky^1bn=</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FranciePinsky</t>
+          <t>Francie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Francie)Pinsky1^1bn-</t>
+          <t>Pinsky1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1bn</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pinsky1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Francie,Pinsky1)1bn!</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>GoldiePinsky</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Goldie.Pinsky2(1bn=</t>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Goldie</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Pinsky2</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>1bn</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>pinsky2</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Goldie)Pinsky2&amp;1bn^</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A-notherPinsky</t>
+          <t>A-nother</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A-nother=Pinsky3%1bn(</t>
+          <t>Pinsky3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1bn</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>pinsky3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A-nother#Pinsky3!1bn,</t>
         </is>
       </c>
     </row>

--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -43,7 +43,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -52,16 +52,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium"/>
+      <right style="medium"/>
       <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,6 +443,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.6" customWidth="1" min="1" max="1"/>
+    <col width="28.8" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="28.8" customWidth="1" min="4" max="4"/>
+    <col width="44.4" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -485,34 +501,34 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Maximilian_De_Junious%2cn^</t>
+          <t>Maximilian-De_Junious.2cn#</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Ramon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Nunez_Gomez</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>3bn</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>nunez_gomez</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ramon#Nunez_Gomez-3bn^</t>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Ramon%Nunez_Gomez)3bn^</t>
         </is>
       </c>
     </row>
@@ -539,34 +555,34 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Uelkue_Oemer&amp;Uellaegoess#1an%</t>
+          <t>Uelkue_Oemer,Uellaegoess&amp;1an)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Isis</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Lanpher</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>4cn</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>lanpher</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Isis^Lanpher^4cn(</t>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Isis_Lanpher^4cn_</t>
         </is>
       </c>
     </row>
@@ -593,34 +609,34 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Maximilian^Galvin#2an_</t>
+          <t>Maximilian.Galvin&amp;2an,</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Jannette</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Laspina</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>4cn</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>laspina</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Jannette^Laspina!4cn(</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Jannette(Laspina.4cn!</t>
         </is>
       </c>
     </row>
@@ -647,34 +663,34 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Marg&amp;Dodich(3cn(</t>
+          <t>Marg(Dodich%3cn,</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Carisa</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Bannowsky</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>2an</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>bannowsky</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Carisa(Bannowsky(2an=</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Carisa_Bannowsky)2an.</t>
         </is>
       </c>
     </row>
@@ -701,34 +717,34 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>David.Waisath^4cn)</t>
+          <t>David&amp;Waisath)4cn&amp;</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Paulette</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>von_Reddig-Piette</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>2cn</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>von_reddig-piette</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Paulette^von_Reddig-Piette,2cn#</t>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Paulette#von_Reddig-Piette#2cn,</t>
         </is>
       </c>
     </row>
@@ -755,34 +771,34 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Kirby^Latona&amp;2an_</t>
+          <t>Kirby%Latona!2an^</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Reed</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Homewood</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>2bn</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>homewood</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Reed)Homewood_2bn%</t>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Reed!Homewood_2bn)</t>
         </is>
       </c>
     </row>
@@ -809,34 +825,34 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Blair.Pallafor-Zedian#5cn(</t>
+          <t>Blair!Pallafor-Zedian=5cn#</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Lon</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>Senemounnarat-Quillian</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>2cn</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>senemounnarat-quillian</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Lon,Senemounnarat-Quillian_2cn(</t>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Lon!Senemounnarat-Quillian=2cn^</t>
         </is>
       </c>
     </row>
@@ -863,34 +879,34 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Vada(Isaac-2bn,</t>
+          <t>Vada=Isaac_2bn#</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Jeanett</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Plancarte</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>4bn</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>plancarte</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Jeanett=Plancarte!4bn_</t>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Jeanett!Plancarte%4bn-</t>
         </is>
       </c>
     </row>
@@ -913,34 +929,34 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Alex,Berteotti-Stirn.None%</t>
+          <t>Alex#Berteotti-Stirn-None_</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Robyn</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Strycker</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>3an</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>strycker</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Robyn,Strycker-3an%</t>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Robyn&amp;Strycker=3an.</t>
         </is>
       </c>
     </row>
@@ -967,34 +983,34 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Camille-Von_Verrill%3bn#</t>
+          <t>Camille-Von_Verrill=3bn(</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Franz_Michael_Leopold</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Deschner</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>4cn</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>deschner</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Franz_Michael_Leopold^Deschner_4cn.</t>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Franz_Michael_Leopold#Deschner^4cn.</t>
         </is>
       </c>
     </row>
@@ -1017,34 +1033,34 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Veola^Franzi&amp;None)</t>
+          <t>Veola,Franzi(None-</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Chantelle</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Cringle</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>3cn</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>cringle</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Chantelle=Cringle_3cn%</t>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Chantelle.Cringle(3cn)</t>
         </is>
       </c>
     </row>
@@ -1071,34 +1087,34 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Britney.Kosh&amp;5bn,</t>
+          <t>Britney.Kosh(5bn!</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Clayton</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>Derouchie</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>4bn</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>derouchie</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Clayton)Derouchie.4bn#</t>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Clayton&amp;Derouchie.4bn&amp;</t>
         </is>
       </c>
     </row>
@@ -1125,34 +1141,34 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Beverlee^Doutt=5bn^</t>
+          <t>Beverlee!Doutt&amp;5bn=</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Alma</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>Munley</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>1bn</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>munley</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Alma)Munley-1bn!</t>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Alma#Munley.1bn%</t>
         </is>
       </c>
     </row>
@@ -1179,34 +1195,34 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Thad&amp;Dornbos=5an)</t>
+          <t>Thad%Dornbos&amp;5an&amp;</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Arvilla</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>Mahala</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>2cn</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>mahala</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Arvilla_Mahala)2cn_</t>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Arvilla&amp;Mahala(2cn(</t>
         </is>
       </c>
     </row>
@@ -1229,34 +1245,34 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Mirza!Ellingwood_None&amp;</t>
+          <t>Mirza,Ellingwood^None%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>Francie</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>de_Cardinalli-Sciola</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>3an</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>de_cardinalli-sciola</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Francie(de_Cardinalli-Sciola-3an=</t>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Francie)de_Cardinalli-Sciola%3an.</t>
         </is>
       </c>
     </row>
@@ -1279,34 +1295,34 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>IRENEE!Gundry_None-</t>
+          <t>IRENEE(Gundry&amp;None!</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>IRENEE</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>Pinedo</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>3cn</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>pinedo</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>IRENEE#Pinedo(3cn.</t>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>IRENEE%Pinedo_3cn^</t>
         </is>
       </c>
     </row>
@@ -1333,34 +1349,34 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Mirza,Pinsky^1bn=</t>
+          <t>Mirza_Pinsky(1bn^</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>Francie</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>Pinsky1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>1bn</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>pinsky1</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Francie,Pinsky1)1bn!</t>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Francie)Pinsky1-1bn)</t>
         </is>
       </c>
     </row>
@@ -1387,34 +1403,34 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Goldie)Pinsky2&amp;1bn^</t>
+          <t>Goldie(Pinsky2-1bn(</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>A-nother</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>Pinsky3</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>1bn</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>pinsky3</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>A-nother#Pinsky3!1bn,</t>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>A-nother#Pinsky3=1bn(</t>
         </is>
       </c>
     </row>

--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Maximilian-De_Junious.2cn#</t>
+          <t>Maximilian#De_Junious(2cn=</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Ramon%Nunez_Gomez)3bn^</t>
+          <t>Ramon=Nunez_Gomez,3bn=</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Uelkue_Oemer,Uellaegoess&amp;1an)</t>
+          <t>Uelkue_Oemer-Uellaegoess_1an#</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Isis_Lanpher^4cn_</t>
+          <t>Isis(Lanpher(4cn(</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Maximilian.Galvin&amp;2an,</t>
+          <t>Maximilian,Galvin#2an%</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Jannette(Laspina.4cn!</t>
+          <t>Jannette_Laspina#4cn.</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Marg(Dodich%3cn,</t>
+          <t>Marg_Dodich^3cn#</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Carisa_Bannowsky)2an.</t>
+          <t>Carisa.Bannowsky(2an=</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>David&amp;Waisath)4cn&amp;</t>
+          <t>David(Waisath)4cn)</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Paulette#von_Reddig-Piette#2cn,</t>
+          <t>Paulette!von_Reddig-Piette=2cn.</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Kirby%Latona!2an^</t>
+          <t>Kirby,Latona(2an-</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Reed!Homewood_2bn)</t>
+          <t>Reed(Homewood^2bn(</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Blair!Pallafor-Zedian=5cn#</t>
+          <t>Blair-Pallafor-Zedian%5cn&amp;</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Lon!Senemounnarat-Quillian=2cn^</t>
+          <t>Lon_Senemounnarat-Quillian#2cn%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Vada=Isaac_2bn#</t>
+          <t>Vada^Isaac.2bn,</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Jeanett!Plancarte%4bn-</t>
+          <t>Jeanett(Plancarte&amp;4bn-</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Alex#Berteotti-Stirn-None_</t>
+          <t>Alex!Berteotti-Stirn-None%</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Robyn&amp;Strycker=3an.</t>
+          <t>Robyn^Strycker.3an%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Camille-Von_Verrill=3bn(</t>
+          <t>Camille,Von_Verrill^3bn,</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Franz_Michael_Leopold#Deschner^4cn.</t>
+          <t>Franz_Michael_Leopold%Deschner^4cn^</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Veola,Franzi(None-</t>
+          <t>Veola%Franzi=None%</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Chantelle.Cringle(3cn)</t>
+          <t>Chantelle%Cringle^3cn!</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Britney.Kosh(5bn!</t>
+          <t>Britney_Kosh.5bn&amp;</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Clayton&amp;Derouchie.4bn&amp;</t>
+          <t>Clayton.Derouchie=4bn&amp;</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Beverlee!Doutt&amp;5bn=</t>
+          <t>Beverlee^Doutt&amp;5bn)</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Alma#Munley.1bn%</t>
+          <t>Alma%Munley!1bn#</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Thad%Dornbos&amp;5an&amp;</t>
+          <t>Thad)Dornbos.5an.</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Arvilla&amp;Mahala(2cn(</t>
+          <t>Arvilla%Mahala&amp;2cn)</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Mirza,Ellingwood^None%</t>
+          <t>Mirza^Ellingwood.None!</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Francie)de_Cardinalli-Sciola%3an.</t>
+          <t>Francie^de_Cardinalli-Sciola^3an,</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>IRENEE(Gundry&amp;None!</t>
+          <t>IRENEE=Gundry%None&amp;</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>IRENEE%Pinedo_3cn^</t>
+          <t>IRENEE&amp;Pinedo.3cn)</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Mirza_Pinsky(1bn^</t>
+          <t>Mirza,Pinsky(1bn,</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Francie)Pinsky1-1bn)</t>
+          <t>Francie(Pinsky1#1bn#</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Goldie(Pinsky2-1bn(</t>
+          <t>Goldie-Pinsky2&amp;1bn-</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>A-nother#Pinsky3=1bn(</t>
+          <t>A-nother,Pinsky3(1bn-</t>
         </is>
       </c>
     </row>

--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Maximilian#De_Junious(2cn=</t>
+          <t>Maximilian,De_Junious#2cn=</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Ramon=Nunez_Gomez,3bn=</t>
+          <t>Ramon!Nunez_Gomez%3bn!</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Uelkue_Oemer-Uellaegoess_1an#</t>
+          <t>Uelkue_Oemer=Uellaegoess=1an#</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Isis(Lanpher(4cn(</t>
+          <t>Isis#Lanpher)4cn(</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Maximilian,Galvin#2an%</t>
+          <t>Maximilian%Galvin=2an=</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Jannette_Laspina#4cn.</t>
+          <t>Jannette,Laspina-4cn(</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Marg_Dodich^3cn#</t>
+          <t>Marg)Dodich-3cn(</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Carisa.Bannowsky(2an=</t>
+          <t>Carisa!Bannowsky!2an)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>David(Waisath)4cn)</t>
+          <t>David,Waisath&amp;4cn=</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Paulette!von_Reddig-Piette=2cn.</t>
+          <t>Paulette^von_Reddig-Piette=2cn#</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Kirby,Latona(2an-</t>
+          <t>Kirby!Latona.2an,</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Reed(Homewood^2bn(</t>
+          <t>Reed)Homewood(2bn!</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Blair-Pallafor-Zedian%5cn&amp;</t>
+          <t>Blair^Pallafor-Zedian_5cn_</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Lon_Senemounnarat-Quillian#2cn%</t>
+          <t>Lon=Senemounnarat-Quillian#2cn-</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Vada^Isaac.2bn,</t>
+          <t>Vada%Isaac(2bn&amp;</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Jeanett(Plancarte&amp;4bn-</t>
+          <t>Jeanett_Plancarte-4bn,</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Alex!Berteotti-Stirn-None%</t>
+          <t>Alex)Berteotti-Stirn(None&amp;</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Robyn^Strycker.3an%</t>
+          <t>Robyn%Strycker,3an!</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Camille,Von_Verrill^3bn,</t>
+          <t>Camille#Von_Verrill(3bn^</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Franz_Michael_Leopold%Deschner^4cn^</t>
+          <t>Franz_Michael_Leopold&amp;Deschner!4cn)</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Veola%Franzi=None%</t>
+          <t>Veola%Franzi%None.</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Chantelle%Cringle^3cn!</t>
+          <t>Chantelle=Cringle%3cn%</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Britney_Kosh.5bn&amp;</t>
+          <t>Britney%Kosh!5bn=</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Clayton.Derouchie=4bn&amp;</t>
+          <t>Clayton^Derouchie%4bn%</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Beverlee^Doutt&amp;5bn)</t>
+          <t>Beverlee&amp;Doutt,5bn%</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Alma%Munley!1bn#</t>
+          <t>Alma)Munley&amp;1bn#</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Thad)Dornbos.5an.</t>
+          <t>Thad(Dornbos)5an,</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Arvilla%Mahala&amp;2cn)</t>
+          <t>Arvilla&amp;Mahala,2cn-</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Mirza^Ellingwood.None!</t>
+          <t>Mirza!Ellingwood,None&amp;</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Francie^de_Cardinalli-Sciola^3an,</t>
+          <t>Francie(de_Cardinalli-Sciola,3an&amp;</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>IRENEE=Gundry%None&amp;</t>
+          <t>IRENEE_Gundry&amp;None&amp;</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>IRENEE&amp;Pinedo.3cn)</t>
+          <t>IRENEE!Pinedo)3cn)</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Mirza,Pinsky(1bn,</t>
+          <t>Mirza,Pinsky#1bn#</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Francie(Pinsky1#1bn#</t>
+          <t>Francie-Pinsky1^1bn_</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Goldie-Pinsky2&amp;1bn-</t>
+          <t>Goldie=Pinsky2-1bn,</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>A-nother,Pinsky3(1bn-</t>
+          <t>A-nother#Pinsky3(1bn^</t>
         </is>
       </c>
     </row>

--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Maximilian,De_Junious#2cn=</t>
+          <t>Maximilian.De_Junious&amp;2cn,</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Ramon!Nunez_Gomez%3bn!</t>
+          <t>Ramon,Nunez_Gomez=3bn=</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Uelkue_Oemer=Uellaegoess=1an#</t>
+          <t>Uelkue_Oemer,Uellaegoess^1an-</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Isis#Lanpher)4cn(</t>
+          <t>Isis(Lanpher!4cn,</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Maximilian%Galvin=2an=</t>
+          <t>Maximilian-Galvin-2an(</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Jannette,Laspina-4cn(</t>
+          <t>Jannette(Laspina#4cn&amp;</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Marg)Dodich-3cn(</t>
+          <t>Marg#Dodich&amp;3cn.</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Carisa!Bannowsky!2an)</t>
+          <t>Carisa&amp;Bannowsky^2an(</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>David,Waisath&amp;4cn=</t>
+          <t>David)Waisath^4cn-</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Paulette^von_Reddig-Piette=2cn#</t>
+          <t>Paulette&amp;von_Reddig-Piette#2cn-</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Kirby!Latona.2an,</t>
+          <t>Kirby!Latona(2an&amp;</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Reed)Homewood(2bn!</t>
+          <t>Reed,Homewood)2bn#</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Blair^Pallafor-Zedian_5cn_</t>
+          <t>Blair-Pallafor-Zedian^5cn_</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Lon=Senemounnarat-Quillian#2cn-</t>
+          <t>Lon.Senemounnarat-Quillian!2cn_</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Vada%Isaac(2bn&amp;</t>
+          <t>Vada(Isaac(2bn=</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Jeanett_Plancarte-4bn,</t>
+          <t>Jeanett,Plancarte-4bn.</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Alex)Berteotti-Stirn(None&amp;</t>
+          <t>Alex^Berteotti-Stirn.None&amp;</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Robyn%Strycker,3an!</t>
+          <t>Robyn%Strycker_3an_</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Camille#Von_Verrill(3bn^</t>
+          <t>Camille!Von_Verrill^3bn%</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Franz_Michael_Leopold&amp;Deschner!4cn)</t>
+          <t>Franz_Michael_Leopold#Deschner(4cn,</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Veola%Franzi%None.</t>
+          <t>Veola%Franzi(None&amp;</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Chantelle=Cringle%3cn%</t>
+          <t>Chantelle)Cringle_3cn#</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Britney%Kosh!5bn=</t>
+          <t>Britney_Kosh-5bn.</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Clayton^Derouchie%4bn%</t>
+          <t>Clayton_Derouchie)4bn.</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Beverlee&amp;Doutt,5bn%</t>
+          <t>Beverlee^Doutt=5bn-</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Alma)Munley&amp;1bn#</t>
+          <t>Alma,Munley.1bn(</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Thad(Dornbos)5an,</t>
+          <t>Thad!Dornbos=5an!</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Arvilla&amp;Mahala,2cn-</t>
+          <t>Arvilla)Mahala)2cn!</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Mirza!Ellingwood,None&amp;</t>
+          <t>Mirza_Ellingwood-None,</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Francie(de_Cardinalli-Sciola,3an&amp;</t>
+          <t>Francie!de_Cardinalli-Sciola(3an#</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>IRENEE_Gundry&amp;None&amp;</t>
+          <t>IRENEE%Gundry=None.</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>IRENEE!Pinedo)3cn)</t>
+          <t>IRENEE-Pinedo%3cn=</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Mirza,Pinsky#1bn#</t>
+          <t>Mirza!Pinsky^1bn,</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Francie-Pinsky1^1bn_</t>
+          <t>Francie^Pinsky1_1bn&amp;</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Goldie=Pinsky2-1bn,</t>
+          <t>Goldie%Pinsky2-1bn^</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>A-nother#Pinsky3(1bn^</t>
+          <t>A-nother!Pinsky3=1bn,</t>
         </is>
       </c>
     </row>

--- a/ue01_useranlegen/users.xlsx
+++ b/ue01_useranlegen/users.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Maximilian.De_Junious&amp;2cn,</t>
+          <t>Maximilian_De_Junious(2cn)</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Ramon,Nunez_Gomez=3bn=</t>
+          <t>Ramon#Nunez_Gomez&amp;3bn=</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Uelkue_Oemer,Uellaegoess^1an-</t>
+          <t>Uelkue_Oemer)Uellaegoess)1an&amp;</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Isis(Lanpher!4cn,</t>
+          <t>Isis_Lanpher!4cn,</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Maximilian-Galvin-2an(</t>
+          <t>Maximilian-Galvin_2an!</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Jannette(Laspina#4cn&amp;</t>
+          <t>Jannette(Laspina!4cn#</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Marg#Dodich&amp;3cn.</t>
+          <t>Marg(Dodich)3cn)</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Carisa&amp;Bannowsky^2an(</t>
+          <t>Carisa.Bannowsky,2an.</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>David)Waisath^4cn-</t>
+          <t>David^Waisath_4cn,</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Paulette&amp;von_Reddig-Piette#2cn-</t>
+          <t>Paulette=von_Reddig-Piette(2cn=</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Kirby!Latona(2an&amp;</t>
+          <t>Kirby(Latona!2an%</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Reed,Homewood)2bn#</t>
+          <t>Reed#Homewood,2bn(</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Blair-Pallafor-Zedian^5cn_</t>
+          <t>Blair.Pallafor-Zedian-5cn_</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Lon.Senemounnarat-Quillian!2cn_</t>
+          <t>Lon=Senemounnarat-Quillian#2cn%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Vada(Isaac(2bn=</t>
+          <t>Vada.Isaac-2bn_</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Jeanett,Plancarte-4bn.</t>
+          <t>Jeanett!Plancarte-4bn,</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Alex^Berteotti-Stirn.None&amp;</t>
+          <t>Alex,Berteotti-Stirn-l3hr3r%</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Robyn%Strycker_3an_</t>
+          <t>Robyn!Strycker&amp;3an%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Camille!Von_Verrill^3bn%</t>
+          <t>Camille^Von_Verrill%3bn(</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Franz_Michael_Leopold#Deschner(4cn,</t>
+          <t>Franz_Michael_Leopold)Deschner-4cn.</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Veola%Franzi(None&amp;</t>
+          <t>Veola=Franzi#l3hr3r=</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Chantelle)Cringle_3cn#</t>
+          <t>Chantelle-Cringle%3cn!</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Britney_Kosh-5bn.</t>
+          <t>Britney#Kosh(5bn%</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Clayton_Derouchie)4bn.</t>
+          <t>Clayton^Derouchie^4bn&amp;</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Beverlee^Doutt=5bn-</t>
+          <t>Beverlee%Doutt(5bn(</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Alma,Munley.1bn(</t>
+          <t>Alma%Munley!1bn#</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Thad!Dornbos=5an!</t>
+          <t>Thad,Dornbos-5an(</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Arvilla)Mahala)2cn!</t>
+          <t>Arvilla_Mahala&amp;2cn&amp;</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Mirza_Ellingwood-None,</t>
+          <t>Mirza)Ellingwood(l3hr3r!</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Francie!de_Cardinalli-Sciola(3an#</t>
+          <t>Francie%de_Cardinalli-Sciola.3an#</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>IRENEE%Gundry=None.</t>
+          <t>IRENEE#Gundry^l3hr3r_</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>IRENEE-Pinedo%3cn=</t>
+          <t>IRENEE,Pinedo(3cn-</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Mirza!Pinsky^1bn,</t>
+          <t>Mirza-Pinsky!1bn!</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Francie^Pinsky1_1bn&amp;</t>
+          <t>Francie=Pinsky1&amp;1bn-</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Goldie%Pinsky2-1bn^</t>
+          <t>Goldie=Pinsky2(1bn)</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>A-nother!Pinsky3=1bn,</t>
+          <t>A-nother-Pinsky3^1bn^</t>
         </is>
       </c>
     </row>
